--- a/ejemplos/modelos_arbol_individual-masas_puras/Ppinea_Cataluna_IFN_todo.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_puras/Ppinea_Cataluna_IFN_todo.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,39 +452,42 @@
         </is>
       </c>
       <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="F2">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>424.4131815783875</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10.29147847222222</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7.821439904273913</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3.194178932183352</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>42.32533008967529</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>21.24569916979883</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>18.64004995355601</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>18.17847290627381</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>17.69335155952146</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>16.68449197151891</v>
       </c>
     </row>
@@ -495,39 +503,42 @@
         </is>
       </c>
       <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="F3">
         <v>65</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>429.0817265757498</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>34.49272469444445</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>15.61681382389393</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.987911939978902</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>42.07332354675231</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>22.07381823179284</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>21.99172763539743</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>21.34083451811358</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>20.79901654314639</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>19.62446990197918</v>
       </c>
     </row>
@@ -543,39 +554,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="F4">
         <v>35</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>947.8561055250656</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>19.55595763888889</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12.7025040144721</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.999999999999992</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>42.02829259414553</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>21.62580635229014</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>22.28106548951564</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>21.58909258967236</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>21.03836079490757</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>19.86936049697572</v>
       </c>
     </row>
@@ -591,39 +605,42 @@
         </is>
       </c>
       <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>173.3020491445083</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8.688864583333332</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.207355302630649</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2.771166945586587</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>41.83892808409396</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>28.54973015810956</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>28.33065301041852</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>27.44590111526431</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>26.79919234775315</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>25.19357307728633</v>
       </c>
     </row>
@@ -639,39 +656,42 @@
         </is>
       </c>
       <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="F6">
         <v>50</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1068.106506972275</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>40.59794583333333</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>15.27323954473517</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.855250052967186</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>41.93813710598187</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>27.21358174992125</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>27.20207251155724</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>26.45038162122086</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>25.76652601585046</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>24.28835486087286</v>
       </c>
     </row>
@@ -687,39 +707,42 @@
         </is>
       </c>
       <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="F7">
         <v>40</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>481.0016057888392</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>13.15920972222222</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9.561032953945968</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.855270415087372</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>41.92913063166428</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>27.21358174992125</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>27.23211399687455</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>26.48012705552686</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>25.79596922989577</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>24.28087459647417</v>
       </c>
     </row>
@@ -735,39 +758,42 @@
         </is>
       </c>
       <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>215.743367302347</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>12.49302847222222</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10.63661977236758</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2.87944281475977</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>41.90213896757322</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>27.33098522315191</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>27.33137819508012</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>26.57280025341797</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>25.90308368489421</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>24.3796526703636</v>
       </c>
     </row>
@@ -783,39 +809,42 @@
         </is>
       </c>
       <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>31.83098861837907</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.6123062500000001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5.000000000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.686948854258883</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>41.82071611908739</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>29.26827428186347</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>29.2503627861743</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>28.37606847458296</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>27.60037333321748</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>26.05335793044911</v>
       </c>
     </row>
@@ -831,39 +860,42 @@
         </is>
       </c>
       <c r="C10">
-        <v>23</v>
-      </c>
-      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="F10">
         <v>42</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>862.973469209388</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>19.56306388888889</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10.57073553026306</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.687299144411379</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>41.74866328763117</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>27.64924933084799</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>27.72604478228328</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>26.87070591491043</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>26.20393101972961</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>24.70481377353268</v>
       </c>
     </row>
@@ -879,39 +911,42 @@
         </is>
       </c>
       <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="F11">
         <v>46</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>894.8044578277671</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>49.91262430555555</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>12.78294212105226</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.04816205320003</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>41.82113260192712</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>21.6620736169062</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>22.50238790098983</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>21.85915488064198</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>21.28078810235859</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>20.11845099592035</v>
       </c>
     </row>
@@ -927,39 +962,42 @@
         </is>
       </c>
       <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="F12">
         <v>25</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1039.387881685471</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>24.46732208333333</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>7.183305222341205</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3.012032088802918</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>41.77610848612004</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>22.81723716731176</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>23.00952379210826</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>22.43795830589656</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>21.84162058139701</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>20.60881425871796</v>
       </c>
     </row>
@@ -975,39 +1013,42 @@
         </is>
       </c>
       <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>45.97809467099199</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.50565</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4.692307692307692</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2.879696068305056</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>41.76703937185012</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>28.00057109703852</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>28.38582666507546</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>27.53908138597905</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>26.76806073337067</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>25.27499983993359</v>
       </c>
     </row>
@@ -1023,39 +1064,42 @@
         </is>
       </c>
       <c r="C14">
-        <v>23</v>
-      </c>
-      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="F14">
         <v>24</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2242.316309339148</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>31.86082152777778</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>8.141471060526131</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2.555873875224423</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>41.62213435171233</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>28.28874858452831</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>29.29740129814854</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>28.35985510076458</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>27.62937706513932</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>26.01526734602354</v>
       </c>
     </row>
@@ -1071,42 +1115,45 @@
         </is>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
         <v>2001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>60</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>774.5540563805573</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>60.51588194444444</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>15.78294212105226</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3.144770318447666</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>41.94714356605368</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>19.53897470825942</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>19.22265933779084</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>18.68441419391937</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>18.22831042290469</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>17.15830573117862</v>
       </c>
     </row>
@@ -1122,42 +1169,45 @@
         </is>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
         <v>2000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="F16">
-        <v>14.14710605261292</v>
-      </c>
       <c r="G16">
+        <v>14.14710605261292</v>
+      </c>
+      <c r="H16">
         <v>1.155625</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>13.5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.715056669295989</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>41.65183734519668</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>26.00414591840381</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>25.7688442313966</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>24.91308622077563</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>23.94216861967944</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>22.60650043251643</v>
       </c>
     </row>
@@ -1173,42 +1223,45 @@
         </is>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="E17">
         <v>2014</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>12</v>
       </c>
-      <c r="F17">
-        <v>14.14710605261292</v>
-      </c>
       <c r="G17">
+        <v>14.14710605261292</v>
+      </c>
+      <c r="H17">
         <v>1.890625</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>14.1000003814697</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3.143989221030933</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>42.09840635039721</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>18.86812200885023</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>19.14249688770175</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>18.55593432898464</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>18.10423658429895</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>17.09134610731791</v>
       </c>
     </row>
@@ -1224,42 +1277,45 @@
         </is>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18">
         <v>2015</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>55</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>211.7821776076154</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>8.423834138888889</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>8.519480584061052</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2.685027814134926</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>41.99866180884895</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>28.99499283907536</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>29.58195074605682</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>28.67187510681106</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>27.85166246140971</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>26.28481509635439</v>
       </c>
     </row>
@@ -1275,42 +1331,45 @@
         </is>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
         <v>2014</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>50</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>950.5440556750621</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>22.32815883333333</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>14.72430839172187</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2.697714800471137</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>41.88173778125314</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>30.11421316710826</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>29.82456148898538</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>28.98994736307824</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>28.23750580325873</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>26.59669701723035</v>
       </c>
     </row>
@@ -1326,42 +1385,45 @@
         </is>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20">
         <v>2014</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>25</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>5.092958178940651</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1.21</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>12.8000001907349</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>3.022980725165415</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>42.37768105138264</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>21.82453721629973</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>21.33333328489273</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>20.74766359763204</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>20.24494799880901</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>19.10447762018066</v>
       </c>
     </row>
@@ -1377,42 +1439,45 @@
         </is>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21">
         <v>2016</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>40</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1690.579173287244</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>35.27701805555555</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>12.06006269261302</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.409681002828469</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>41.72773946595733</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>32.92229631555096</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>30.81540773815491</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>29.74006865879007</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>28.82003535838246</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>27.25635756848157</v>
       </c>
     </row>
@@ -1428,42 +1493,45 @@
         </is>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22">
         <v>2016</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>50</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>298.6454087706587</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>21.64625261111111</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>13.37695914474378</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2.266615821088232</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>41.68154826412314</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>28.22968801804382</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>27.76409593634974</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>26.81500313596405</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>25.87611165628989</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>24.40553013267994</v>
       </c>
     </row>
@@ -1479,42 +1547,45 @@
         </is>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
         <v>2016</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>50</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>358.3461963126853</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>19.51291125</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>13.44729032166143</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2.710563169151287</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>41.72904439314247</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>27.59130695656989</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>27.13539200594878</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>26.33053233402324</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>25.63427697016067</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>24.1630189027074</v>
       </c>
     </row>
@@ -1530,42 +1601,45 @@
         </is>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
         <v>2016</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>60</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1408.768820719195</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>25.91853569444444</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>13.57186495735062</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2.530057822947494</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>41.70098617455216</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>30.62231324547816</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>30.13003675799764</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>29.16312047970963</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>28.35991924524629</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>26.81727969139466</v>
       </c>
     </row>
@@ -1581,42 +1655,45 @@
         </is>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
         <v>2016</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>65</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>688.822593701723</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>30.54188888888889</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>11.7505227135819</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2.554142728025169</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>41.69217437110888</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>31.23178044960007</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>30.73123171444466</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>29.78940651151958</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>28.96551721973066</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>27.28452276247879</v>
       </c>
     </row>
@@ -1632,42 +1709,45 @@
         </is>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26">
         <v>2016</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>60</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1047.451732135461</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>27.23761588888889</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>12.99239943623065</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2.471381962249813</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>41.62950482691307</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>30.7596983234094</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>31.99180750952611</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>30.96903768161873</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>30.00492852212177</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>28.2672706507311</v>
       </c>
     </row>
@@ -1683,42 +1763,45 @@
         </is>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
         <v>2015</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>35</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1069.238275456484</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>35.60754352777778</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>15.21778292570641</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.36288022021395</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>41.61031030773887</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>26.31080824821569</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>26.19017242530238</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>25.28886811510385</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>24.52446925816912</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>23.17417000025556</v>
       </c>
     </row>
@@ -1734,42 +1817,45 @@
         </is>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28">
         <v>2015</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>40</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>873.5837987488477</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>31.50441527777778</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>13.26935851790955</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2.471212304790821</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>41.61059845313589</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>30.57782753111553</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>30.06896563495895</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>29.12959378357819</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>28.31353906412401</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>26.65834647267056</v>
       </c>
     </row>
@@ -1785,42 +1871,45 @@
         </is>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
         <v>2016</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>50</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>279.4053445391052</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>17.560025</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>12.27226941831952</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.387459408659467</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>41.59245699090717</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>28.21444595345291</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>28.16883114702606</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>27.33790025836954</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>26.40788853480871</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>25.01773313855524</v>
       </c>
     </row>
@@ -1836,42 +1925,45 @@
         </is>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="E30">
         <v>2016</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>45</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>152.0813900655889</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5.549704166666666</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>6.429483713081308</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2.519023065794774</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>41.65610432707643</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>30.82608348539835</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>30.72760262604882</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>29.805699555505</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>28.94050255513941</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>27.22657479028258</v>
       </c>
     </row>
@@ -1887,42 +1979,45 @@
         </is>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="E31">
         <v>2016</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>60</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1201.655188108941</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>37.80180377777778</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>14.78657925842606</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.590806118027125</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>41.64833010799723</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>31.17037511219348</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>31.28900506940688</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>30.30322492438319</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>29.52215745946576</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>27.85581110817575</v>
       </c>
     </row>
@@ -1938,42 +2033,45 @@
         </is>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D32">
+        <v>23</v>
+      </c>
+      <c r="E32">
         <v>2015</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>20</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>63.66197723675813</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1.40453125</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>4.799999952316285</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2.266954910736497</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>41.49253033365158</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>22.8681777148277</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>25.49952428574523</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>24.68720825692174</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>23.8641578253232</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>22.49208975759354</v>
       </c>
     </row>
@@ -1989,42 +2087,45 @@
         </is>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D33">
+        <v>23</v>
+      </c>
+      <c r="E33">
         <v>2016</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>25</v>
       </c>
-      <c r="F33">
-        <v>14.14710605261292</v>
-      </c>
       <c r="G33">
+        <v>14.14710605261292</v>
+      </c>
+      <c r="H33">
         <v>1.0201</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>8.10000038146973</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2.208525036247521</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>41.48323505907999</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>23.95482354469951</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>22.9588015254622</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>22.20588221669094</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>21.49954830412097</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>20.25211335424152</v>
       </c>
     </row>
